--- a/schedule_output.xlsx
+++ b/schedule_output.xlsx
@@ -688,7 +688,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>O13</t>
+          <t>O6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -700,19 +700,19 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -732,7 +732,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -742,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
         <v>35</v>
@@ -849,23 +849,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
         <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H11" t="n">
         <v>41</v>
@@ -888,7 +888,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -898,25 +898,25 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
         <v>11.5</v>
       </c>
       <c r="G12" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="H12" t="n">
         <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="J12" t="n">
         <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13">
@@ -927,7 +927,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -937,31 +937,31 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H13" t="n">
         <v>18</v>
       </c>
       <c r="I13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J13" t="n">
         <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>O6</t>
+          <t>O13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -973,28 +973,28 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>26.76470588235294</v>
+        <v>35.76470588235294</v>
       </c>
       <c r="F14" t="n">
-        <v>9.411764705882353</v>
+        <v>6.470588235294118</v>
       </c>
       <c r="G14" t="n">
-        <v>36.1764705882353</v>
+        <v>42.23529411764706</v>
       </c>
       <c r="H14" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I14" t="n">
-        <v>3.176470588235297</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11</v>
       </c>
       <c r="K14" t="n">
-        <v>34.94117647058827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1054,13 +1054,13 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>45</v>
+        <v>45.5</v>
       </c>
       <c r="F16" t="n">
         <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>57</v>
+        <v>57.5</v>
       </c>
       <c r="H16" t="n">
         <v>66</v>
@@ -1078,7 +1078,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>O41</t>
+          <t>O16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1090,28 +1090,28 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>43.1764705882353</v>
+        <v>43.23529411764706</v>
       </c>
       <c r="F17" t="n">
-        <v>12.35294117647059</v>
+        <v>9.411764705882353</v>
       </c>
       <c r="G17" t="n">
-        <v>55.52941176470588</v>
+        <v>52.64705882352941</v>
       </c>
       <c r="H17" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I17" t="n">
-        <v>2.529411764705884</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>35.41176470588238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1132,13 +1132,13 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F18" t="n">
         <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H18" t="n">
         <v>85</v>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1210,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>57</v>
+        <v>57.5</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="H20" t="n">
         <v>76</v>
@@ -1239,35 +1239,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>55.52941176470588</v>
+        <v>60</v>
       </c>
       <c r="F21" t="n">
-        <v>8.823529411764707</v>
+        <v>7.5</v>
       </c>
       <c r="G21" t="n">
-        <v>64.35294117647059</v>
+        <v>67.5</v>
       </c>
       <c r="H21" t="n">
         <v>61</v>
       </c>
       <c r="I21" t="n">
-        <v>3.352941176470594</v>
+        <v>6.5</v>
       </c>
       <c r="J21" t="n">
         <v>11</v>
       </c>
       <c r="K21" t="n">
-        <v>36.88235294117653</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="22">
@@ -1278,74 +1278,74 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>56</v>
+        <v>61.64705882352941</v>
       </c>
       <c r="F22" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>64.5</v>
+        <v>71.64705882352942</v>
       </c>
       <c r="H22" t="n">
         <v>69</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2.64705882352942</v>
       </c>
       <c r="J22" t="n">
         <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>18.52941176470594</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>O33</t>
+          <t>O22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>64.35294117647059</v>
+        <v>68.41176470588235</v>
       </c>
       <c r="F23" t="n">
-        <v>12.35294117647059</v>
+        <v>7.647058823529412</v>
       </c>
       <c r="G23" t="n">
-        <v>76.70588235294119</v>
+        <v>76.05882352941177</v>
       </c>
       <c r="H23" t="n">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I23" t="n">
-        <v>23.70588235294119</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K23" t="n">
-        <v>331.8823529411766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1363,16 +1363,16 @@
         <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="F24" t="n">
         <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>75.5</v>
+        <v>76.5</v>
       </c>
       <c r="H24" t="n">
         <v>100</v>
@@ -1395,23 +1395,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>63.41176470588235</v>
+        <v>69.5</v>
       </c>
       <c r="F25" t="n">
-        <v>11.17647058823529</v>
+        <v>9.5</v>
       </c>
       <c r="G25" t="n">
-        <v>74.58823529411764</v>
+        <v>79</v>
       </c>
       <c r="H25" t="n">
         <v>106</v>
@@ -1434,35 +1434,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>70</v>
+        <v>72.64705882352942</v>
       </c>
       <c r="F26" t="n">
-        <v>10.5</v>
+        <v>12.35294117647059</v>
       </c>
       <c r="G26" t="n">
-        <v>80.5</v>
+        <v>85.00000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>53</v>
       </c>
       <c r="I26" t="n">
-        <v>27.5</v>
+        <v>32.00000000000001</v>
       </c>
       <c r="J26" t="n">
         <v>14</v>
       </c>
       <c r="K26" t="n">
-        <v>385</v>
+        <v>448.0000000000002</v>
       </c>
     </row>
     <row r="27">
@@ -1473,35 +1473,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>78.5</v>
+        <v>76.05882352941177</v>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>12.94117647058824</v>
       </c>
       <c r="G27" t="n">
-        <v>89.5</v>
+        <v>89</v>
       </c>
       <c r="H27" t="n">
         <v>81</v>
       </c>
       <c r="I27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
         <v>11</v>
       </c>
       <c r="K27" t="n">
-        <v>93.5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
@@ -1512,35 +1512,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C28" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="F28" t="n">
         <v>6</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>74.58823529411764</v>
-      </c>
-      <c r="F28" t="n">
-        <v>7.058823529411764</v>
-      </c>
       <c r="G28" t="n">
-        <v>81.64705882352941</v>
+        <v>84.5</v>
       </c>
       <c r="H28" t="n">
         <v>78</v>
       </c>
       <c r="I28" t="n">
-        <v>3.647058823529406</v>
+        <v>6.5</v>
       </c>
       <c r="J28" t="n">
         <v>8</v>
       </c>
       <c r="K28" t="n">
-        <v>29.17647058823525</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
@@ -1551,35 +1551,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="C29" t="n">
+        <v>8</v>
+      </c>
+      <c r="D29" t="n">
         <v>7</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
-        <v>76.70588235294119</v>
+        <v>86</v>
       </c>
       <c r="F29" t="n">
-        <v>13.52941176470588</v>
+        <v>11.5</v>
       </c>
       <c r="G29" t="n">
-        <v>90.23529411764707</v>
+        <v>97.5</v>
       </c>
       <c r="H29" t="n">
         <v>82</v>
       </c>
       <c r="I29" t="n">
-        <v>8.235294117647072</v>
+        <v>15.5</v>
       </c>
       <c r="J29" t="n">
         <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>49.41176470588243</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
@@ -1590,23 +1590,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
         <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>85.5</v>
+        <v>90.00000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>5.5</v>
+        <v>6.470588235294118</v>
       </c>
       <c r="G30" t="n">
-        <v>91</v>
+        <v>96.47058823529413</v>
       </c>
       <c r="H30" t="n">
         <v>110</v>
@@ -1629,23 +1629,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
         <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>88.64705882352941</v>
+        <v>91.5</v>
       </c>
       <c r="F31" t="n">
-        <v>14.11764705882353</v>
+        <v>12</v>
       </c>
       <c r="G31" t="n">
-        <v>102.7647058823529</v>
+        <v>103.5</v>
       </c>
       <c r="H31" t="n">
         <v>115</v>
@@ -1668,35 +1668,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
         <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>92.5</v>
+        <v>92</v>
       </c>
       <c r="F32" t="n">
-        <v>9</v>
+        <v>10.58823529411765</v>
       </c>
       <c r="G32" t="n">
-        <v>101.5</v>
+        <v>102.5882352941177</v>
       </c>
       <c r="H32" t="n">
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5</v>
+        <v>2.588235294117652</v>
       </c>
       <c r="J32" t="n">
         <v>9</v>
       </c>
       <c r="K32" t="n">
-        <v>13.5</v>
+        <v>23.29411764705887</v>
       </c>
     </row>
     <row r="33">
@@ -1717,31 +1717,31 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>91</v>
+        <v>97.5</v>
       </c>
       <c r="F33" t="n">
         <v>9.5</v>
       </c>
       <c r="G33" t="n">
-        <v>100.5</v>
+        <v>107</v>
       </c>
       <c r="H33" t="n">
         <v>106</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>12</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>O22</t>
+          <t>O33</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1753,28 +1753,28 @@
         <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>93.23529411764707</v>
+        <v>96.47058823529413</v>
       </c>
       <c r="F34" t="n">
-        <v>7.647058823529412</v>
+        <v>12.35294117647059</v>
       </c>
       <c r="G34" t="n">
-        <v>100.8823529411765</v>
+        <v>108.8235294117647</v>
       </c>
       <c r="H34" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="I34" t="n">
-        <v>14.88235294117649</v>
+        <v>55.82352941176472</v>
       </c>
       <c r="J34" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K34" t="n">
-        <v>148.8235294117649</v>
+        <v>781.5294117647061</v>
       </c>
     </row>
     <row r="35">
@@ -1785,35 +1785,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>101.5</v>
+        <v>102.5882352941177</v>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>12.94117647058824</v>
       </c>
       <c r="G35" t="n">
-        <v>112.5</v>
+        <v>115.5294117647059</v>
       </c>
       <c r="H35" t="n">
         <v>81</v>
       </c>
       <c r="I35" t="n">
-        <v>31.5</v>
+        <v>34.52941176470588</v>
       </c>
       <c r="J35" t="n">
         <v>11</v>
       </c>
       <c r="K35" t="n">
-        <v>346.5</v>
+        <v>379.8235294117648</v>
       </c>
     </row>
     <row r="36">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1834,25 +1834,25 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>101.5</v>
+        <v>104.5</v>
       </c>
       <c r="F36" t="n">
         <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>107.5</v>
+        <v>110.5</v>
       </c>
       <c r="H36" t="n">
         <v>78</v>
       </c>
       <c r="I36" t="n">
-        <v>29.5</v>
+        <v>32.5</v>
       </c>
       <c r="J36" t="n">
         <v>8</v>
       </c>
       <c r="K36" t="n">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37">
@@ -1863,35 +1863,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>103.8823529411765</v>
+        <v>109</v>
       </c>
       <c r="F37" t="n">
-        <v>13.52941176470588</v>
+        <v>11.5</v>
       </c>
       <c r="G37" t="n">
-        <v>117.4117647058824</v>
+        <v>120.5</v>
       </c>
       <c r="H37" t="n">
         <v>82</v>
       </c>
       <c r="I37" t="n">
-        <v>35.41176470588238</v>
+        <v>38.5</v>
       </c>
       <c r="J37" t="n">
         <v>6</v>
       </c>
       <c r="K37" t="n">
-        <v>212.4705882352943</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38">
@@ -1902,35 +1902,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>104.7647058823529</v>
+        <v>110.8235294117647</v>
       </c>
       <c r="F38" t="n">
         <v>6.470588235294118</v>
       </c>
       <c r="G38" t="n">
-        <v>111.235294117647</v>
+        <v>117.2941176470588</v>
       </c>
       <c r="H38" t="n">
         <v>110</v>
       </c>
       <c r="I38" t="n">
-        <v>1.235294117647044</v>
+        <v>7.29411764705884</v>
       </c>
       <c r="J38" t="n">
         <v>9</v>
       </c>
       <c r="K38" t="n">
-        <v>11.11764705882339</v>
+        <v>65.64705882352956</v>
       </c>
     </row>
     <row r="39">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1951,25 +1951,25 @@
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>114.5</v>
+        <v>117.5</v>
       </c>
       <c r="F39" t="n">
         <v>12</v>
       </c>
       <c r="G39" t="n">
-        <v>126.5</v>
+        <v>129.5</v>
       </c>
       <c r="H39" t="n">
         <v>115</v>
       </c>
       <c r="I39" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="J39" t="n">
         <v>13</v>
       </c>
       <c r="K39" t="n">
-        <v>149.5</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="40">
@@ -1980,35 +1980,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
         <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>121.5</v>
+        <v>124.5294117647059</v>
       </c>
       <c r="F40" t="n">
-        <v>9</v>
+        <v>10.58823529411765</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5</v>
+        <v>135.1176470588235</v>
       </c>
       <c r="H40" t="n">
         <v>100</v>
       </c>
       <c r="I40" t="n">
-        <v>30.5</v>
+        <v>35.11764705882354</v>
       </c>
       <c r="J40" t="n">
         <v>9</v>
       </c>
       <c r="K40" t="n">
-        <v>274.5</v>
+        <v>316.0588235294118</v>
       </c>
     </row>
     <row r="41">
@@ -2019,74 +2019,74 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
         <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>116.235294117647</v>
+        <v>122.2941176470588</v>
       </c>
       <c r="F41" t="n">
         <v>11.17647058823529</v>
       </c>
       <c r="G41" t="n">
-        <v>127.4117647058823</v>
+        <v>133.4705882352941</v>
       </c>
       <c r="H41" t="n">
         <v>106</v>
       </c>
       <c r="I41" t="n">
-        <v>21.41176470588233</v>
+        <v>27.47058823529414</v>
       </c>
       <c r="J41" t="n">
         <v>12</v>
       </c>
       <c r="K41" t="n">
-        <v>256.941176470588</v>
+        <v>329.6470588235297</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>O16</t>
+          <t>O41</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>117.4117647058824</v>
+        <v>127.5</v>
       </c>
       <c r="F42" t="n">
-        <v>9.411764705882353</v>
+        <v>10.5</v>
       </c>
       <c r="G42" t="n">
-        <v>126.8235294117647</v>
+        <v>138</v>
       </c>
       <c r="H42" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I42" t="n">
-        <v>63.82352941176472</v>
+        <v>85</v>
       </c>
       <c r="J42" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K42" t="n">
-        <v>510.5882352941178</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="43">
@@ -2104,28 +2104,28 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>130.5</v>
+        <v>136.5</v>
       </c>
       <c r="F43" t="n">
         <v>11</v>
       </c>
       <c r="G43" t="n">
-        <v>141.5</v>
+        <v>147.5</v>
       </c>
       <c r="H43" t="n">
         <v>81</v>
       </c>
       <c r="I43" t="n">
-        <v>60.5</v>
+        <v>66.5</v>
       </c>
       <c r="J43" t="n">
         <v>11</v>
       </c>
       <c r="K43" t="n">
-        <v>665.5</v>
+        <v>731.5</v>
       </c>
     </row>
     <row r="44">
@@ -2136,35 +2136,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>130.5</v>
+        <v>136.1176470588235</v>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="G44" t="n">
-        <v>136.5</v>
+        <v>143.1764705882353</v>
       </c>
       <c r="H44" t="n">
         <v>78</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5</v>
+        <v>65.1764705882353</v>
       </c>
       <c r="J44" t="n">
         <v>8</v>
       </c>
       <c r="K44" t="n">
-        <v>468</v>
+        <v>521.4117647058824</v>
       </c>
     </row>
     <row r="45">
@@ -2182,28 +2182,28 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>126.8235294117647</v>
+        <v>136.4705882352941</v>
       </c>
       <c r="F45" t="n">
         <v>13.52941176470588</v>
       </c>
       <c r="G45" t="n">
-        <v>140.3529411764706</v>
+        <v>150</v>
       </c>
       <c r="H45" t="n">
         <v>82</v>
       </c>
       <c r="I45" t="n">
-        <v>58.35294117647061</v>
+        <v>68.00000000000003</v>
       </c>
       <c r="J45" t="n">
         <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>350.1176470588236</v>
+        <v>408.0000000000002</v>
       </c>
     </row>
     <row r="46">
@@ -2214,35 +2214,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>127.4117647058823</v>
+        <v>141</v>
       </c>
       <c r="F46" t="n">
-        <v>6.470588235294118</v>
+        <v>5.5</v>
       </c>
       <c r="G46" t="n">
-        <v>133.8823529411765</v>
+        <v>146.5</v>
       </c>
       <c r="H46" t="n">
         <v>110</v>
       </c>
       <c r="I46" t="n">
-        <v>23.88235294117646</v>
+        <v>36.5</v>
       </c>
       <c r="J46" t="n">
         <v>9</v>
       </c>
       <c r="K46" t="n">
-        <v>214.9411764705882</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="47">
@@ -2253,35 +2253,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>138.8823529411765</v>
+        <v>149.5</v>
       </c>
       <c r="F47" t="n">
-        <v>14.11764705882353</v>
+        <v>12</v>
       </c>
       <c r="G47" t="n">
-        <v>153</v>
+        <v>161.5</v>
       </c>
       <c r="H47" t="n">
         <v>115</v>
       </c>
       <c r="I47" t="n">
-        <v>38</v>
+        <v>46.5</v>
       </c>
       <c r="J47" t="n">
         <v>13</v>
       </c>
       <c r="K47" t="n">
-        <v>494</v>
+        <v>604.5</v>
       </c>
     </row>
   </sheetData>
